--- a/gd/交互系统/IM系统设计.xlsx
+++ b/gd/交互系统/IM系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" activeTab="6"/>
+    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="694">
   <si>
     <t>文档名称</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2762,10 +2762,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>屏蔽名单已满，请先清理再操作</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>雪</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3010,6 +3006,14 @@
   </si>
   <si>
     <t>世界频道</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认显示”请输入信息“</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽名单已满，请先去系统设置中清理再操作</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -3878,6 +3882,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3928,9 +3935,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -5277,6 +5281,120 @@
         <a:xfrm>
           <a:off x="9707217" y="11181522"/>
           <a:ext cx="2724979" cy="2961102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>42958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4522304" y="11247783"/>
+          <a:ext cx="414131" cy="175479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>463826</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>223631</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>26393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9963978" y="11231218"/>
+          <a:ext cx="414131" cy="175479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>26391</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514021" y="15372521"/>
+          <a:ext cx="414131" cy="175479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7645,6 +7763,120 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>115954</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4497456" y="24591066"/>
+          <a:ext cx="488672" cy="207064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>629477</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4323522" y="5234609"/>
+          <a:ext cx="488672" cy="207064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>182217</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>494966</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图片 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5739847" y="40510239"/>
+          <a:ext cx="312749" cy="132521"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9241,6 +9473,44 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>73940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="11610975"/>
+          <a:ext cx="466725" cy="197765"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10562,17 +10832,17 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133" t="s">
+      <c r="C12" s="133"/>
+      <c r="D12" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="133"/>
-      <c r="H12" s="134"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="135"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="6" t="s">
@@ -10581,76 +10851,76 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="128"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="129"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="135"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="137"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="138"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="138"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="140"/>
+      <c r="D15" s="139"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="141"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="7"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="7"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="128"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -10989,10 +11259,10 @@
       </c>
       <c r="E52" s="111"/>
       <c r="G52" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="H52" s="35" t="s">
         <v>629</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -11000,7 +11270,7 @@
       <c r="C53" s="11"/>
       <c r="E53" s="111"/>
       <c r="H53" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -11008,7 +11278,7 @@
       <c r="C54" s="11"/>
       <c r="E54" s="111"/>
       <c r="H54" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -11016,7 +11286,7 @@
       <c r="C55" s="11"/>
       <c r="E55" s="111"/>
       <c r="H55" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -11024,13 +11294,13 @@
       <c r="C56" s="11"/>
       <c r="E56" s="111"/>
       <c r="H56" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="K56" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="K56" s="35" t="s">
+      <c r="L56" s="35" t="s">
         <v>676</v>
-      </c>
-      <c r="L56" s="35" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -11038,13 +11308,13 @@
       <c r="C57" s="11"/>
       <c r="E57" s="111"/>
       <c r="H57" s="35" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K57" s="35" t="s">
+        <v>675</v>
+      </c>
+      <c r="L57" s="35" t="s">
         <v>676</v>
-      </c>
-      <c r="L57" s="35" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -11052,7 +11322,7 @@
       <c r="C58" s="11"/>
       <c r="E58" s="111"/>
       <c r="H58" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
@@ -11062,7 +11332,7 @@
       <c r="C59" s="11"/>
       <c r="E59" s="111"/>
       <c r="H59" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
@@ -11072,7 +11342,7 @@
       <c r="C60" s="11"/>
       <c r="E60" s="111"/>
       <c r="H60" s="35" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K60" s="35"/>
       <c r="L60" s="35"/>
@@ -11108,10 +11378,10 @@
         <v>42263</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="G63" s="2"/>
     </row>
@@ -11951,8 +12221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W205"/>
   <sheetViews>
-    <sheetView topLeftCell="B169" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -13290,7 +13560,7 @@
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C114" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -13676,7 +13946,7 @@
         <v>406</v>
       </c>
       <c r="W182" s="115" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.35">
@@ -13696,15 +13966,15 @@
         <v>440</v>
       </c>
       <c r="I183" s="19"/>
-      <c r="J183" s="141" t="s">
-        <v>637</v>
-      </c>
-      <c r="K183" s="142"/>
-      <c r="L183" s="142"/>
-      <c r="M183" s="142"/>
-      <c r="N183" s="142"/>
-      <c r="O183" s="142"/>
-      <c r="P183" s="143"/>
+      <c r="J183" s="142" t="s">
+        <v>636</v>
+      </c>
+      <c r="K183" s="143"/>
+      <c r="L183" s="143"/>
+      <c r="M183" s="143"/>
+      <c r="N183" s="143"/>
+      <c r="O183" s="143"/>
+      <c r="P183" s="144"/>
       <c r="Q183" s="80"/>
       <c r="R183" s="21">
         <v>1</v>
@@ -13957,8 +14227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA342"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:N54"/>
+    <sheetView topLeftCell="A190" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G198" sqref="G198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -14123,7 +14393,7 @@
     <row r="54" spans="5:17" ht="17.25" x14ac:dyDescent="0.35">
       <c r="E54" s="13"/>
       <c r="F54" s="112" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G54" s="112"/>
       <c r="H54" s="112"/>
@@ -14354,7 +14624,7 @@
     </row>
     <row r="88" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F88" s="112" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G88" s="112"/>
       <c r="H88" s="112"/>
@@ -14368,7 +14638,7 @@
     </row>
     <row r="89" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F89" s="112" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G89" s="112"/>
       <c r="H89" s="112"/>
@@ -14558,7 +14828,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="42"/>
       <c r="H104" s="108" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I104" s="108"/>
       <c r="J104" s="108"/>
@@ -15001,7 +15271,7 @@
     <row r="159" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G159" s="42"/>
       <c r="H159" s="112" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I159" s="112"/>
       <c r="J159" s="112"/>
@@ -15287,7 +15557,7 @@
     <row r="189" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G189" s="42"/>
       <c r="H189" s="78" t="s">
-        <v>533</v>
+        <v>692</v>
       </c>
       <c r="I189" s="78"/>
       <c r="J189" s="78"/>
@@ -15904,7 +16174,7 @@
     <row r="251" spans="6:13" x14ac:dyDescent="0.35">
       <c r="G251" s="42"/>
       <c r="H251" s="113" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I251" s="113"/>
       <c r="J251" s="43"/>
@@ -15984,7 +16254,7 @@
     <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="G258" s="42"/>
       <c r="H258" s="109" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I258" s="110"/>
       <c r="J258" s="110"/>
@@ -18752,7 +19022,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -18887,7 +19157,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="25"/>
@@ -19112,7 +19382,7 @@
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F105" s="25"/>
       <c r="G105" s="25"/>
@@ -19383,7 +19653,7 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
@@ -19396,7 +19666,7 @@
       <c r="C126" s="2"/>
       <c r="D126" s="13"/>
       <c r="E126" s="112" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F126" s="112"/>
       <c r="G126" s="112"/>
@@ -19417,7 +19687,7 @@
       <c r="C127" s="2"/>
       <c r="D127" s="13"/>
       <c r="E127" s="112" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F127" s="112"/>
       <c r="G127" s="112"/>
@@ -19490,7 +19760,7 @@
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="112" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="F132" s="112"/>
       <c r="H132" s="13"/>
@@ -20209,8 +20479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q169"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -22411,7 +22681,7 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="104" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.35">
@@ -22794,7 +23064,7 @@
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C169" s="41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -22809,7 +23079,7 @@
   <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -22860,11 +23130,11 @@
       <c r="E2" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="144" t="s">
-        <v>692</v>
-      </c>
-      <c r="G2" s="144" t="s">
+      <c r="F2" s="127" t="s">
         <v>691</v>
+      </c>
+      <c r="G2" s="127" t="s">
+        <v>690</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>101</v>
@@ -22996,7 +23266,7 @@
         <v>156</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>628</v>
+        <v>693</v>
       </c>
       <c r="E7" s="82" t="s">
         <v>620</v>
@@ -23287,35 +23557,35 @@
     </row>
     <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B2" s="119" t="s">
+        <v>644</v>
+      </c>
+      <c r="C2" s="119" t="s">
         <v>645</v>
-      </c>
-      <c r="C2" s="119" t="s">
-        <v>646</v>
       </c>
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
       <c r="H2" s="122" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L2" s="122" t="s">
+        <v>666</v>
+      </c>
+      <c r="M2" s="122" t="s">
         <v>667</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="N2" s="122" t="s">
         <v>668</v>
-      </c>
-      <c r="N2" s="122" t="s">
-        <v>669</v>
       </c>
       <c r="O2" s="123"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="120" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" s="121" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -23323,13 +23593,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H5" s="41">
         <v>1</v>
       </c>
       <c r="M5" s="124" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="N5" s="41">
         <v>0.5</v>
@@ -23340,13 +23610,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H6" s="41">
         <v>1</v>
       </c>
       <c r="M6" s="124" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N6" s="41">
         <v>0.5</v>
@@ -23357,7 +23627,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H7" s="41">
         <v>0.6</v>
@@ -23374,7 +23644,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H8" s="41">
         <v>0.5</v>
@@ -23385,7 +23655,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H9" s="41">
         <v>1</v>
@@ -23396,7 +23666,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H10" s="41">
         <v>0.5</v>
@@ -23407,7 +23677,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H11" s="41">
         <v>1.5</v>
@@ -23418,7 +23688,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H12" s="41">
         <v>0.5</v>
@@ -23429,7 +23699,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H13" s="41">
         <v>2</v>
@@ -23440,7 +23710,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H14" s="41">
         <v>2.5</v>
@@ -23451,7 +23721,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="H15" s="41">
         <v>1</v>
@@ -23459,7 +23729,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="41" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H16" s="41">
         <v>12.1</v>
@@ -23467,7 +23737,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="121" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
@@ -23475,7 +23745,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H19" s="41">
         <v>4</v>
@@ -23486,7 +23756,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H20" s="41">
         <v>3</v>
@@ -23497,7 +23767,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H21" s="41">
         <v>1</v>
@@ -23508,7 +23778,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H22" s="41">
         <v>1</v>
@@ -23519,7 +23789,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H23" s="41">
         <v>3</v>
@@ -23527,7 +23797,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="41" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H24" s="41">
         <v>12</v>
@@ -23535,12 +23805,12 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="126" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C27" s="41" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H27" s="41">
         <v>1.5</v>

--- a/gd/交互系统/IM系统设计.xlsx
+++ b/gd/交互系统/IM系统设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285" activeTab="6"/>
+    <workbookView xWindow="420" yWindow="-120" windowWidth="20730" windowHeight="6285" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -1723,10 +1723,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>通过左侧聊天框最多可查看100行聊天信息（每个频道）</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>您还没有公会</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -3014,6 +3010,10 @@
   </si>
   <si>
     <t>屏蔽名单已满，请先去系统设置中清理再操作</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过左侧聊天框最多可查看100条聊天信息（每个频道）</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -10773,7 +10773,7 @@
   <dimension ref="A2:L64"/>
   <sheetViews>
     <sheetView topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -10979,17 +10979,17 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C25" s="11">
         <v>42252</v>
       </c>
       <c r="E25" s="63"/>
       <c r="G25" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -10997,7 +10997,7 @@
       <c r="C26" s="11"/>
       <c r="E26" s="63"/>
       <c r="H26" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -11005,13 +11005,13 @@
       <c r="C27" s="11"/>
       <c r="E27" s="63"/>
       <c r="H27" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K27" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="L27" s="35" t="s">
         <v>423</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -11019,13 +11019,13 @@
       <c r="C28" s="11"/>
       <c r="E28" s="63"/>
       <c r="H28" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K28" s="35" t="s">
+        <v>422</v>
+      </c>
+      <c r="L28" s="35" t="s">
         <v>423</v>
-      </c>
-      <c r="L28" s="35" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -11033,7 +11033,7 @@
       <c r="C29" s="11"/>
       <c r="E29" s="63"/>
       <c r="H29" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -11041,25 +11041,25 @@
       <c r="C30" s="11"/>
       <c r="E30" s="63"/>
       <c r="H30" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C31" s="11">
         <v>42258</v>
       </c>
       <c r="E31" s="75"/>
       <c r="G31" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H31" s="35" t="s">
+        <v>504</v>
+      </c>
+      <c r="J31" s="35" t="s">
         <v>505</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -11067,7 +11067,7 @@
       <c r="C32" s="11"/>
       <c r="E32" s="75"/>
       <c r="H32" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="J32" s="35"/>
     </row>
@@ -11076,14 +11076,14 @@
       <c r="C33" s="11"/>
       <c r="E33" s="75"/>
       <c r="H33" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J33" s="35"/>
       <c r="K33" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="L33" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.35">
@@ -11091,10 +11091,10 @@
       <c r="C34" s="11"/>
       <c r="E34" s="75"/>
       <c r="H34" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.35">
@@ -11102,7 +11102,7 @@
       <c r="C35" s="11"/>
       <c r="E35" s="75"/>
       <c r="J35" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L35" s="35"/>
     </row>
@@ -11112,7 +11112,7 @@
       <c r="E36" s="75"/>
       <c r="H36" s="35"/>
       <c r="J36" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="L36" s="35"/>
     </row>
@@ -11122,7 +11122,7 @@
       <c r="E37" s="75"/>
       <c r="H37" s="35"/>
       <c r="J37" s="35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L37" s="35"/>
     </row>
@@ -11132,7 +11132,7 @@
       <c r="E38" s="75"/>
       <c r="H38" s="35"/>
       <c r="J38" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L38" s="35"/>
     </row>
@@ -11142,7 +11142,7 @@
       <c r="E39" s="75"/>
       <c r="H39" s="35"/>
       <c r="J39" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="L39" s="35"/>
     </row>
@@ -11152,7 +11152,7 @@
       <c r="E40" s="75"/>
       <c r="H40" s="35"/>
       <c r="J40" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="L40" s="35"/>
     </row>
@@ -11161,7 +11161,7 @@
       <c r="C41" s="11"/>
       <c r="E41" s="75"/>
       <c r="H41" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.35">
@@ -11169,10 +11169,10 @@
       <c r="C42" s="11"/>
       <c r="E42" s="75"/>
       <c r="H42" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J42" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.35">
@@ -11180,7 +11180,7 @@
       <c r="C43" s="11"/>
       <c r="E43" s="75"/>
       <c r="J43" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.35">
@@ -11188,7 +11188,7 @@
       <c r="C44" s="11"/>
       <c r="E44" s="75"/>
       <c r="J44" s="76" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.35">
@@ -11196,7 +11196,7 @@
       <c r="C45" s="11"/>
       <c r="E45" s="75"/>
       <c r="H45" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.35">
@@ -11204,7 +11204,7 @@
       <c r="C46" s="11"/>
       <c r="E46" s="75"/>
       <c r="H46" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.35">
@@ -11212,7 +11212,7 @@
       <c r="C47" s="11"/>
       <c r="E47" s="75"/>
       <c r="H47" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.35">
@@ -11220,7 +11220,7 @@
       <c r="C48" s="11"/>
       <c r="E48" s="75"/>
       <c r="H48" s="76" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -11228,7 +11228,7 @@
       <c r="C49" s="11"/>
       <c r="E49" s="75"/>
       <c r="H49" s="35" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -11236,7 +11236,7 @@
       <c r="C50" s="11"/>
       <c r="E50" s="75"/>
       <c r="H50" s="35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -11246,10 +11246,10 @@
       </c>
       <c r="E51" s="107"/>
       <c r="G51" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="H51" s="35" t="s">
         <v>607</v>
-      </c>
-      <c r="H51" s="35" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -11259,10 +11259,10 @@
       </c>
       <c r="E52" s="111"/>
       <c r="G52" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="H52" s="35" t="s">
         <v>628</v>
-      </c>
-      <c r="H52" s="35" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -11270,7 +11270,7 @@
       <c r="C53" s="11"/>
       <c r="E53" s="111"/>
       <c r="H53" s="35" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -11278,7 +11278,7 @@
       <c r="C54" s="11"/>
       <c r="E54" s="111"/>
       <c r="H54" s="35" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -11286,7 +11286,7 @@
       <c r="C55" s="11"/>
       <c r="E55" s="111"/>
       <c r="H55" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -11294,13 +11294,13 @@
       <c r="C56" s="11"/>
       <c r="E56" s="111"/>
       <c r="H56" s="35" t="s">
+        <v>673</v>
+      </c>
+      <c r="K56" s="35" t="s">
         <v>674</v>
       </c>
-      <c r="K56" s="35" t="s">
+      <c r="L56" s="35" t="s">
         <v>675</v>
-      </c>
-      <c r="L56" s="35" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -11308,13 +11308,13 @@
       <c r="C57" s="11"/>
       <c r="E57" s="111"/>
       <c r="H57" s="35" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K57" s="35" t="s">
+        <v>674</v>
+      </c>
+      <c r="L57" s="35" t="s">
         <v>675</v>
-      </c>
-      <c r="L57" s="35" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -11322,7 +11322,7 @@
       <c r="C58" s="11"/>
       <c r="E58" s="111"/>
       <c r="H58" s="35" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
@@ -11332,7 +11332,7 @@
       <c r="C59" s="11"/>
       <c r="E59" s="111"/>
       <c r="H59" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K59" s="35"/>
       <c r="L59" s="35"/>
@@ -11342,7 +11342,7 @@
       <c r="C60" s="11"/>
       <c r="E60" s="111"/>
       <c r="H60" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K60" s="35"/>
       <c r="L60" s="35"/>
@@ -11378,10 +11378,10 @@
         <v>42263</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>631</v>
       </c>
       <c r="G63" s="2"/>
     </row>
@@ -11506,14 +11506,14 @@
     </row>
     <row r="28" spans="2:11" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="13" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -11529,7 +11529,7 @@
       <c r="E29" s="43"/>
       <c r="F29" s="43"/>
       <c r="G29" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H29" s="43"/>
       <c r="I29" s="43"/>
@@ -12092,7 +12092,7 @@
       <c r="B71" s="13"/>
       <c r="C71" s="66"/>
       <c r="D71" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
@@ -12221,8 +12221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W205"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -12284,7 +12284,7 @@
     </row>
     <row r="11" spans="2:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D11" s="61"/>
       <c r="E11" s="61"/>
@@ -12292,7 +12292,7 @@
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.35">
       <c r="C12" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D12" s="61"/>
       <c r="E12" s="61"/>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D16" s="74" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E16" s="74"/>
       <c r="F16" s="74"/>
@@ -12359,10 +12359,10 @@
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.35">
       <c r="D18" s="74" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F18" s="74"/>
       <c r="G18" s="74"/>
@@ -12521,7 +12521,7 @@
     </row>
     <row r="32" spans="2:21" x14ac:dyDescent="0.35">
       <c r="B32" s="73" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -12544,10 +12544,10 @@
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.35">
       <c r="D34" s="74" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F34" s="74"/>
       <c r="G34" s="74"/>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="52" spans="3:21" x14ac:dyDescent="0.35">
       <c r="D52" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -12761,10 +12761,10 @@
     </row>
     <row r="54" spans="3:21" x14ac:dyDescent="0.35">
       <c r="D54" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="M54" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
@@ -13356,11 +13356,11 @@
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="106" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="108" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E101" s="108"/>
       <c r="F101" s="108"/>
@@ -13378,7 +13378,7 @@
     <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C102" s="13"/>
       <c r="D102" s="108" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E102" s="108"/>
       <c r="F102" s="108"/>
@@ -13560,46 +13560,46 @@
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C114" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="106" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="108" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="108" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="108" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="108" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="108" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -13679,7 +13679,7 @@
     </row>
     <row r="151" spans="3:10" x14ac:dyDescent="0.35">
       <c r="D151" s="74" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E151" s="74"/>
       <c r="F151" s="74"/>
@@ -13756,7 +13756,7 @@
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D162" s="74" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E162" s="74"/>
       <c r="F162" s="74"/>
@@ -13769,7 +13769,7 @@
     </row>
     <row r="163" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D163" s="74" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E163" s="74"/>
       <c r="F163" s="74"/>
@@ -13782,7 +13782,7 @@
     </row>
     <row r="164" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D164" s="74" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E164" s="74"/>
       <c r="F164" s="74"/>
@@ -13795,10 +13795,10 @@
     </row>
     <row r="165" spans="2:12" x14ac:dyDescent="0.35">
       <c r="D165" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="E165" s="74" t="s">
         <v>446</v>
-      </c>
-      <c r="E165" s="74" t="s">
-        <v>447</v>
       </c>
       <c r="F165" s="74"/>
       <c r="G165" s="77"/>
@@ -13885,7 +13885,7 @@
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.35">
       <c r="S180" s="59" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="T180" s="60"/>
       <c r="U180" s="60"/>
@@ -13903,7 +13903,7 @@
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A182" s="106" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C182" s="28" t="s">
         <v>57</v>
@@ -13928,7 +13928,7 @@
       <c r="O182" s="30"/>
       <c r="P182" s="31"/>
       <c r="Q182" s="79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="R182" s="32" t="s">
         <v>101</v>
@@ -13943,15 +13943,15 @@
         <v>61</v>
       </c>
       <c r="V182" s="64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="W182" s="115" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A183" s="108" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C183" s="17" t="s">
         <v>351</v>
@@ -13963,11 +13963,11 @@
       <c r="F183" s="22"/>
       <c r="G183" s="19"/>
       <c r="H183" s="18" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I183" s="19"/>
       <c r="J183" s="142" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K183" s="143"/>
       <c r="L183" s="143"/>
@@ -13995,7 +13995,7 @@
     </row>
     <row r="184" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="108" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C184" s="17" t="s">
         <v>65</v>
@@ -14041,12 +14041,12 @@
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A185" s="108" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A186" s="108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>68</v>
@@ -14055,7 +14055,7 @@
     <row r="187" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D187" s="13"/>
       <c r="E187" s="13" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F187" s="13"/>
       <c r="G187" s="13"/>
@@ -14070,7 +14070,7 @@
     <row r="188" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D188" s="13"/>
       <c r="E188" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F188" s="13"/>
       <c r="G188" s="13"/>
@@ -14085,7 +14085,7 @@
     <row r="189" spans="1:23" x14ac:dyDescent="0.35">
       <c r="D189" s="13"/>
       <c r="E189" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F189" s="61"/>
       <c r="G189" s="61"/>
@@ -14158,7 +14158,7 @@
     <row r="195" spans="4:12" x14ac:dyDescent="0.35">
       <c r="D195" s="13"/>
       <c r="E195" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F195" s="13"/>
       <c r="G195" s="13"/>
@@ -14227,8 +14227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA342"/>
   <sheetViews>
-    <sheetView topLeftCell="A190" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G198" sqref="G198"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F314" sqref="F314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -14393,7 +14393,7 @@
     <row r="54" spans="5:17" ht="17.25" x14ac:dyDescent="0.35">
       <c r="E54" s="13"/>
       <c r="F54" s="112" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G54" s="112"/>
       <c r="H54" s="112"/>
@@ -14460,13 +14460,13 @@
     </row>
     <row r="71" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D71" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="Q71" s="13"/>
     </row>
     <row r="72" spans="4:17" x14ac:dyDescent="0.35">
       <c r="D72" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q72" s="13"/>
     </row>
@@ -14475,7 +14475,7 @@
     </row>
     <row r="74" spans="4:17" x14ac:dyDescent="0.35">
       <c r="G74" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Q74" s="13"/>
     </row>
@@ -14499,7 +14499,7 @@
     <row r="78" spans="4:17" x14ac:dyDescent="0.35">
       <c r="F78" s="13"/>
       <c r="G78" s="51" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H78" s="51"/>
       <c r="I78" s="51"/>
@@ -14559,7 +14559,7 @@
     <row r="83" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F83" s="13"/>
       <c r="G83" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="74"/>
@@ -14599,7 +14599,7 @@
     <row r="86" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F86" s="13"/>
       <c r="G86" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="74"/>
@@ -14624,7 +14624,7 @@
     </row>
     <row r="88" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F88" s="112" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G88" s="112"/>
       <c r="H88" s="112"/>
@@ -14638,7 +14638,7 @@
     </row>
     <row r="89" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F89" s="112" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G89" s="112"/>
       <c r="H89" s="112"/>
@@ -14676,7 +14676,7 @@
     </row>
     <row r="92" spans="6:17" x14ac:dyDescent="0.35">
       <c r="F92" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H92" s="13"/>
       <c r="Q92" s="13"/>
@@ -14724,7 +14724,7 @@
       <c r="F96" s="13"/>
       <c r="G96" s="42"/>
       <c r="H96" s="78" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I96" s="78"/>
       <c r="J96" s="43"/>
@@ -14815,7 +14815,7 @@
       <c r="F103" s="13"/>
       <c r="G103" s="42"/>
       <c r="H103" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -14828,7 +14828,7 @@
       <c r="F104" s="13"/>
       <c r="G104" s="42"/>
       <c r="H104" s="108" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I104" s="108"/>
       <c r="J104" s="108"/>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="144" spans="6:10" x14ac:dyDescent="0.35">
       <c r="F144" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="145" spans="7:15" x14ac:dyDescent="0.35">
@@ -15214,7 +15214,7 @@
     <row r="154" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G154" s="42"/>
       <c r="H154" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I154" s="13"/>
       <c r="J154" s="13"/>
@@ -15225,10 +15225,10 @@
     <row r="155" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G155" s="42"/>
       <c r="H155" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="I155" s="74" t="s">
         <v>463</v>
-      </c>
-      <c r="I155" s="74" t="s">
-        <v>464</v>
       </c>
       <c r="J155" s="74"/>
       <c r="K155" s="13"/>
@@ -15271,7 +15271,7 @@
     <row r="159" spans="7:15" x14ac:dyDescent="0.35">
       <c r="G159" s="42"/>
       <c r="H159" s="112" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I159" s="112"/>
       <c r="J159" s="112"/>
@@ -15378,7 +15378,7 @@
         <v>214</v>
       </c>
       <c r="I168" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="J168" s="13"/>
       <c r="K168" s="74"/>
@@ -15390,7 +15390,7 @@
         <v>105</v>
       </c>
       <c r="I169" s="13" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J169" s="13"/>
       <c r="K169" s="74"/>
@@ -15400,7 +15400,7 @@
     <row r="170" spans="2:13" x14ac:dyDescent="0.35">
       <c r="H170" s="13"/>
       <c r="I170" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J170" s="13"/>
     </row>
@@ -15474,7 +15474,7 @@
     </row>
     <row r="181" spans="2:15" x14ac:dyDescent="0.35">
       <c r="F181" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="182" spans="2:15" x14ac:dyDescent="0.35">
@@ -15557,7 +15557,7 @@
     <row r="189" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G189" s="42"/>
       <c r="H189" s="78" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I189" s="78"/>
       <c r="J189" s="78"/>
@@ -15569,7 +15569,7 @@
     <row r="190" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G190" s="42"/>
       <c r="H190" s="78" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I190" s="78"/>
       <c r="J190" s="78"/>
@@ -15581,7 +15581,7 @@
     <row r="191" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G191" s="42"/>
       <c r="H191" s="78" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I191" s="78"/>
       <c r="J191" s="78"/>
@@ -15593,7 +15593,7 @@
     <row r="192" spans="2:15" x14ac:dyDescent="0.35">
       <c r="G192" s="42"/>
       <c r="H192" s="78" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I192" s="78"/>
       <c r="J192" s="78"/>
@@ -15785,7 +15785,7 @@
     <row r="211" spans="6:18" x14ac:dyDescent="0.35">
       <c r="G211" s="42"/>
       <c r="H211" s="13" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I211" s="13"/>
       <c r="J211" s="13"/>
@@ -15809,7 +15809,7 @@
     <row r="213" spans="6:18" ht="17.25" x14ac:dyDescent="0.35">
       <c r="G213" s="42"/>
       <c r="H213" s="41" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I213" s="41"/>
       <c r="J213" s="41"/>
@@ -15924,7 +15924,7 @@
     </row>
     <row r="223" spans="6:18" x14ac:dyDescent="0.35">
       <c r="F223" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="224" spans="6:18" x14ac:dyDescent="0.35">
@@ -16001,10 +16001,10 @@
     <row r="232" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G232" s="42"/>
       <c r="H232" s="43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I232" s="78" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J232" s="43"/>
       <c r="K232" s="43"/>
@@ -16030,7 +16030,7 @@
     <row r="235" spans="7:11" x14ac:dyDescent="0.35">
       <c r="G235" s="42"/>
       <c r="H235" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I235" s="13"/>
       <c r="J235" s="13"/>
@@ -16114,7 +16114,7 @@
     </row>
     <row r="244" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F244" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H244" s="13"/>
       <c r="I244" s="13"/>
@@ -16135,7 +16135,7 @@
     </row>
     <row r="247" spans="6:13" x14ac:dyDescent="0.35">
       <c r="F247" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="248" spans="6:13" x14ac:dyDescent="0.35">
@@ -16174,7 +16174,7 @@
     <row r="251" spans="6:13" x14ac:dyDescent="0.35">
       <c r="G251" s="42"/>
       <c r="H251" s="113" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I251" s="113"/>
       <c r="J251" s="43"/>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" s="106" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G257" s="42"/>
       <c r="H257" s="41" t="s">
@@ -16254,7 +16254,7 @@
     <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="G258" s="42"/>
       <c r="H258" s="109" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I258" s="110"/>
       <c r="J258" s="110"/>
@@ -16391,7 +16391,7 @@
       <c r="C271" s="1"/>
       <c r="E271" s="13"/>
       <c r="F271" s="74" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G271" s="74"/>
       <c r="H271" s="74"/>
@@ -16410,7 +16410,7 @@
       <c r="C272" s="1"/>
       <c r="E272" s="13"/>
       <c r="F272" s="74" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G272" s="74"/>
       <c r="H272" s="74"/>
@@ -16446,7 +16446,7 @@
       <c r="C274" s="1"/>
       <c r="E274" s="13"/>
       <c r="F274" s="61" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G274" s="61"/>
       <c r="H274" s="61"/>
@@ -16465,7 +16465,7 @@
       <c r="C275" s="1"/>
       <c r="E275" s="13"/>
       <c r="F275" s="61" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G275" s="61"/>
       <c r="H275" s="61"/>
@@ -16486,10 +16486,10 @@
       <c r="C276" s="1"/>
       <c r="E276" s="13"/>
       <c r="F276" s="74" t="s">
+        <v>482</v>
+      </c>
+      <c r="G276" s="74" t="s">
         <v>483</v>
-      </c>
-      <c r="G276" s="74" t="s">
-        <v>484</v>
       </c>
       <c r="H276" s="74"/>
       <c r="I276" s="13"/>
@@ -16536,13 +16536,13 @@
       <c r="E279" s="13"/>
       <c r="F279" s="13"/>
       <c r="G279" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H279" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="I279" s="25" t="s">
         <v>495</v>
-      </c>
-      <c r="I279" s="25" t="s">
-        <v>496</v>
       </c>
       <c r="J279" s="13"/>
       <c r="K279" s="13"/>
@@ -16558,7 +16558,7 @@
         <v>391</v>
       </c>
       <c r="I280" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J280" s="13"/>
       <c r="K280" s="13"/>
@@ -16576,7 +16576,7 @@
         <v>391</v>
       </c>
       <c r="I281" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J281" s="13"/>
       <c r="K281" s="13"/>
@@ -16588,13 +16588,13 @@
       <c r="E282" s="13"/>
       <c r="F282" s="13"/>
       <c r="G282" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H282" s="51" t="s">
         <v>391</v>
       </c>
       <c r="I282" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J282" s="13"/>
       <c r="K282" s="13"/>
@@ -16606,10 +16606,10 @@
       <c r="E283" s="13"/>
       <c r="F283" s="13"/>
       <c r="G283" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="H283" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="H283" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="I283" s="51" t="s">
         <v>391</v>
@@ -16636,7 +16636,7 @@
         <v>166</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J285" s="13"/>
       <c r="K285" s="13"/>
@@ -16653,7 +16653,7 @@
         <v>167</v>
       </c>
       <c r="F287" s="83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G287" s="13"/>
       <c r="H287" s="13"/>
@@ -16666,7 +16666,7 @@
       <c r="C288" s="1"/>
       <c r="E288" s="13"/>
       <c r="F288" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G288" s="13"/>
       <c r="H288" s="13"/>
@@ -16678,7 +16678,7 @@
       <c r="C289" s="1"/>
       <c r="E289" s="13"/>
       <c r="F289" s="71" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G289" s="13"/>
       <c r="H289" s="13"/>
@@ -16690,7 +16690,7 @@
       <c r="C290" s="1"/>
       <c r="E290" s="13"/>
       <c r="F290" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J290" s="13"/>
       <c r="K290" s="37"/>
@@ -16708,7 +16708,7 @@
         <v>168</v>
       </c>
       <c r="F292" s="74" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G292" s="74"/>
       <c r="H292" s="74"/>
@@ -16794,7 +16794,7 @@
       <c r="E299" s="13"/>
       <c r="F299" s="74"/>
       <c r="G299" s="74" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H299" s="74"/>
       <c r="I299" s="13"/>
@@ -16803,7 +16803,7 @@
       <c r="E300" s="13"/>
       <c r="F300" s="74"/>
       <c r="G300" s="74" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H300" s="74"/>
       <c r="I300" s="13"/>
@@ -16816,7 +16816,7 @@
     <row r="301" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E301" s="13"/>
       <c r="F301" s="41" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G301" s="13"/>
       <c r="H301" s="13"/>
@@ -16830,7 +16830,7 @@
     <row r="302" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E302" s="13"/>
       <c r="F302" s="74" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G302" s="74"/>
       <c r="H302" s="74"/>
@@ -16844,7 +16844,7 @@
     <row r="303" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E303" s="13"/>
       <c r="F303" s="74" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G303" s="74"/>
       <c r="H303" s="74"/>
@@ -16858,7 +16858,7 @@
     <row r="304" spans="3:27" x14ac:dyDescent="0.35">
       <c r="E304" s="13"/>
       <c r="F304" s="74" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G304" s="74"/>
       <c r="H304" s="74"/>
@@ -16924,7 +16924,7 @@
     </row>
     <row r="310" spans="5:15" x14ac:dyDescent="0.35">
       <c r="F310" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G310" s="13"/>
       <c r="H310" s="13"/>
@@ -16975,7 +16975,7 @@
     </row>
     <row r="314" spans="5:15" x14ac:dyDescent="0.35">
       <c r="F314" s="61" t="s">
-        <v>394</v>
+        <v>693</v>
       </c>
       <c r="G314" s="61"/>
       <c r="H314" s="62"/>
@@ -16987,7 +16987,7 @@
     </row>
     <row r="315" spans="5:15" x14ac:dyDescent="0.35">
       <c r="F315" s="61" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G315" s="61"/>
       <c r="H315" s="62"/>
@@ -17032,7 +17032,7 @@
         <v>177</v>
       </c>
       <c r="F319" s="13" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G319" s="36"/>
       <c r="H319" s="36"/>
@@ -17392,7 +17392,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C2" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
@@ -17402,7 +17402,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C5" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D5" s="70"/>
       <c r="E5" s="70"/>
@@ -17410,7 +17410,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D7" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -17487,7 +17487,7 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -17498,10 +17498,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="92" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
@@ -17515,7 +17515,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="109" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="s">
@@ -17534,7 +17534,7 @@
       <c r="A16" s="46"/>
       <c r="D16" s="13"/>
       <c r="E16" s="108" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F16" s="108"/>
       <c r="G16" s="13"/>
@@ -17596,7 +17596,7 @@
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -17628,7 +17628,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B1" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -17727,7 +17727,7 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="74"/>
@@ -17769,7 +17769,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="74" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G11" s="74"/>
       <c r="H11" s="74"/>
@@ -17783,7 +17783,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="74" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G12" s="74"/>
       <c r="H12" s="74"/>
@@ -17797,7 +17797,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="74" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G13" s="74"/>
       <c r="H13" s="74"/>
@@ -17811,7 +17811,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="74" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G14" s="74"/>
       <c r="H14" s="74"/>
@@ -17825,7 +17825,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="74" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G15" s="74"/>
       <c r="H15" s="74"/>
@@ -17847,7 +17847,7 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="74" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D17" s="74"/>
       <c r="E17" s="74"/>
@@ -17860,7 +17860,7 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="74" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D18" s="74"/>
       <c r="E18" s="74"/>
@@ -17884,12 +17884,12 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="92" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="94" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E20" s="74"/>
       <c r="F20" s="74"/>
@@ -17905,7 +17905,7 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="109" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -18007,7 +18007,7 @@
       <c r="D26" s="85"/>
       <c r="E26" s="95"/>
       <c r="F26" s="78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G26" s="78"/>
       <c r="H26" s="78"/>
@@ -18026,7 +18026,7 @@
       <c r="D27" s="85"/>
       <c r="E27" s="95"/>
       <c r="F27" s="85" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="G27" s="78"/>
       <c r="H27" s="78"/>
@@ -18045,7 +18045,7 @@
       <c r="D28" s="85"/>
       <c r="E28" s="95"/>
       <c r="F28" s="109" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G28" s="110"/>
       <c r="H28" s="110"/>
@@ -18064,7 +18064,7 @@
       <c r="D29" s="85"/>
       <c r="E29" s="95"/>
       <c r="F29" s="109" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G29" s="110"/>
       <c r="H29" s="110"/>
@@ -18083,7 +18083,7 @@
       <c r="D30" s="85"/>
       <c r="E30" s="95"/>
       <c r="F30" s="109" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G30" s="110"/>
       <c r="H30" s="110"/>
@@ -18120,10 +18120,10 @@
       <c r="C32" s="2"/>
       <c r="D32" s="85"/>
       <c r="E32" s="99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F32" s="78" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G32" s="74"/>
       <c r="H32" s="78"/>
@@ -18142,10 +18142,10 @@
       <c r="D33" s="85"/>
       <c r="E33" s="95"/>
       <c r="F33" s="78" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G33" s="78" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H33" s="78"/>
       <c r="I33" s="78"/>
@@ -18262,7 +18262,7 @@
       <c r="D39" s="85"/>
       <c r="E39" s="95"/>
       <c r="F39" s="78" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G39" s="45" t="s">
         <v>151</v>
@@ -18342,7 +18342,7 @@
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="96" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E43" s="74"/>
       <c r="F43" s="74"/>
@@ -18453,7 +18453,7 @@
       <c r="D49" s="74"/>
       <c r="E49" s="95"/>
       <c r="F49" s="78" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G49" s="78"/>
       <c r="H49" s="78"/>
@@ -18489,7 +18489,7 @@
       <c r="D51" s="74"/>
       <c r="E51" s="95"/>
       <c r="F51" s="78" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G51" s="74"/>
       <c r="H51" s="78"/>
@@ -18507,10 +18507,10 @@
       <c r="D52" s="74"/>
       <c r="E52" s="95"/>
       <c r="F52" s="78" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G52" s="78" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H52" s="78"/>
       <c r="I52" s="78"/>
@@ -18545,7 +18545,7 @@
       <c r="D54" s="74"/>
       <c r="E54" s="95"/>
       <c r="F54" s="74" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G54" s="78"/>
       <c r="H54" s="78"/>
@@ -18575,7 +18575,7 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="92" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -18587,10 +18587,10 @@
       <c r="I56" s="74"/>
       <c r="J56" s="74"/>
       <c r="K56" s="85" t="s">
+        <v>547</v>
+      </c>
+      <c r="L56" s="85" t="s">
         <v>548</v>
-      </c>
-      <c r="L56" s="85" t="s">
-        <v>549</v>
       </c>
       <c r="M56" s="85"/>
       <c r="N56" s="85"/>
@@ -18598,7 +18598,7 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="109" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -18617,7 +18617,7 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="109" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -18629,10 +18629,10 @@
       <c r="I58" s="74"/>
       <c r="J58" s="74"/>
       <c r="K58" s="85" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L58" s="85" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M58" s="85"/>
       <c r="N58" s="85"/>
@@ -18649,10 +18649,10 @@
       <c r="I59" s="74"/>
       <c r="J59" s="74"/>
       <c r="K59" s="99" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L59" s="85" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M59" s="85"/>
       <c r="N59" s="85"/>
@@ -18670,10 +18670,10 @@
       <c r="J60" s="74"/>
       <c r="K60" s="85"/>
       <c r="L60" s="78" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M60" s="92" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N60" s="85"/>
       <c r="O60" s="85"/>
@@ -18732,7 +18732,7 @@
       <c r="D64" s="74"/>
       <c r="E64" s="95"/>
       <c r="F64" s="74" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G64" s="74"/>
       <c r="H64" s="74"/>
@@ -18750,7 +18750,7 @@
       <c r="D65" s="74"/>
       <c r="E65" s="95"/>
       <c r="F65" s="74" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G65" s="108"/>
       <c r="H65" s="108"/>
@@ -18768,7 +18768,7 @@
       <c r="D66" s="74"/>
       <c r="E66" s="95"/>
       <c r="F66" s="108" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G66" s="108"/>
       <c r="H66" s="108"/>
@@ -18786,7 +18786,7 @@
       <c r="D67" s="74"/>
       <c r="E67" s="95"/>
       <c r="F67" s="74" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G67" s="74"/>
       <c r="H67" s="74"/>
@@ -18804,7 +18804,7 @@
       <c r="D68" s="74"/>
       <c r="E68" s="95"/>
       <c r="F68" s="74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G68" s="74"/>
       <c r="H68" s="74"/>
@@ -18834,14 +18834,14 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" s="92" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="74"/>
       <c r="E70" s="95"/>
       <c r="F70" s="108" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G70" s="108"/>
       <c r="H70" s="108"/>
@@ -18971,7 +18971,7 @@
     </row>
     <row r="77" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B77" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="13"/>
@@ -19022,7 +19022,7 @@
       <c r="C80" s="2"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -19082,7 +19082,7 @@
       <c r="D84" s="13"/>
       <c r="E84" s="13"/>
       <c r="F84" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G84" s="51" t="s">
         <v>323</v>
@@ -19096,7 +19096,7 @@
       <c r="D85" s="13"/>
       <c r="E85" s="13"/>
       <c r="F85" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G85" s="51" t="s">
         <v>323</v>
@@ -19157,7 +19157,7 @@
       <c r="C89" s="2"/>
       <c r="D89" s="13"/>
       <c r="E89" s="13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F89" s="13"/>
       <c r="G89" s="25"/>
@@ -19174,7 +19174,7 @@
       <c r="C90" s="2"/>
       <c r="D90" s="13"/>
       <c r="E90" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F90" s="13"/>
       <c r="G90" s="13"/>
@@ -19290,7 +19290,7 @@
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B99" s="27" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="13"/>
@@ -19382,7 +19382,7 @@
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F105" s="25"/>
       <c r="G105" s="25"/>
@@ -19512,7 +19512,7 @@
     </row>
     <row r="115" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B115" s="27" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="13"/>
@@ -19653,7 +19653,7 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
@@ -19666,7 +19666,7 @@
       <c r="C126" s="2"/>
       <c r="D126" s="13"/>
       <c r="E126" s="112" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F126" s="112"/>
       <c r="G126" s="112"/>
@@ -19687,7 +19687,7 @@
       <c r="C127" s="2"/>
       <c r="D127" s="13"/>
       <c r="E127" s="112" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F127" s="112"/>
       <c r="G127" s="112"/>
@@ -19760,7 +19760,7 @@
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="112" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F132" s="112"/>
       <c r="H132" s="13"/>
@@ -19843,7 +19843,7 @@
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.35">
       <c r="B139" s="89" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C139" s="90"/>
       <c r="D139" s="90"/>
@@ -19857,7 +19857,7 @@
       <c r="L139" s="90"/>
       <c r="M139" s="90"/>
       <c r="N139" s="91" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="O139" s="91"/>
       <c r="P139" s="91"/>
@@ -19878,7 +19878,7 @@
       <c r="L140" s="90"/>
       <c r="M140" s="90"/>
       <c r="N140" s="91" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="O140" s="91"/>
       <c r="P140" s="91"/>
@@ -20061,7 +20061,7 @@
       <c r="C152" s="90"/>
       <c r="D152" s="90"/>
       <c r="E152" s="90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="F152" s="90"/>
       <c r="G152" s="90"/>
@@ -20327,7 +20327,7 @@
       <c r="C168" s="90"/>
       <c r="D168" s="90"/>
       <c r="E168" s="90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F168" s="90"/>
       <c r="G168" s="90"/>
@@ -20490,7 +20490,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="104" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -20797,7 +20797,7 @@
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -20868,7 +20868,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
@@ -20903,7 +20903,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="13"/>
       <c r="E31" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
@@ -20922,7 +20922,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="13"/>
@@ -20953,7 +20953,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E36" s="42"/>
       <c r="F36" s="44"/>
@@ -20984,7 +20984,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
@@ -21000,7 +21000,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
@@ -21030,7 +21030,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
@@ -21046,7 +21046,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
@@ -21062,10 +21062,10 @@
       <c r="D43" s="2"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="G43" s="13" t="s">
         <v>483</v>
-      </c>
-      <c r="G43" s="13" t="s">
-        <v>484</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -21111,18 +21111,18 @@
       <c r="E46" s="13"/>
       <c r="F46" s="13"/>
       <c r="G46" s="25" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H46" s="25" t="s">
+        <v>494</v>
+      </c>
+      <c r="I46" s="25" t="s">
         <v>495</v>
-      </c>
-      <c r="I46" s="25" t="s">
-        <v>496</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
       <c r="L46" s="74" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M46" s="2"/>
     </row>
@@ -21139,7 +21139,7 @@
         <v>391</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
@@ -21159,7 +21159,7 @@
         <v>391</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -21173,13 +21173,13 @@
       <c r="E49" s="13"/>
       <c r="F49" s="13"/>
       <c r="G49" s="13" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H49" s="51" t="s">
         <v>391</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -21193,10 +21193,10 @@
       <c r="E50" s="13"/>
       <c r="F50" s="13"/>
       <c r="G50" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I50" s="51" t="s">
         <v>391</v>
@@ -21215,7 +21215,7 @@
         <v>167</v>
       </c>
       <c r="G51" s="83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -21231,7 +21231,7 @@
       <c r="E52" s="42"/>
       <c r="F52" s="13"/>
       <c r="G52" s="13" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -21247,7 +21247,7 @@
       <c r="E53" s="42"/>
       <c r="F53" s="13"/>
       <c r="G53" s="71" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -21670,7 +21670,7 @@
     </row>
     <row r="82" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D82" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -21704,7 +21704,7 @@
       <c r="D84" s="2"/>
       <c r="E84" s="42"/>
       <c r="F84" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
@@ -21720,10 +21720,10 @@
       <c r="D85" s="2"/>
       <c r="E85" s="42"/>
       <c r="F85" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="G85" s="13" t="s">
         <v>463</v>
-      </c>
-      <c r="G85" s="13" t="s">
-        <v>464</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
@@ -21814,7 +21814,7 @@
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D91" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -21944,7 +21944,7 @@
       <c r="D99" s="2"/>
       <c r="E99" s="42"/>
       <c r="F99" s="44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G99" s="44"/>
       <c r="H99" s="44"/>
@@ -21960,7 +21960,7 @@
       <c r="D100" s="2"/>
       <c r="E100" s="42"/>
       <c r="F100" s="44" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G100" s="44"/>
       <c r="H100" s="44"/>
@@ -21976,7 +21976,7 @@
       <c r="D101" s="2"/>
       <c r="E101" s="42"/>
       <c r="F101" s="44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G101" s="44"/>
       <c r="H101" s="44"/>
@@ -21992,7 +21992,7 @@
       <c r="D102" s="2"/>
       <c r="E102" s="42"/>
       <c r="F102" s="44" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G102" s="44"/>
       <c r="H102" s="44"/>
@@ -22020,7 +22020,7 @@
     </row>
     <row r="104" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D104" s="13" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -22070,10 +22070,10 @@
       <c r="D107" s="2"/>
       <c r="E107" s="42"/>
       <c r="F107" s="43" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G107" s="44" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H107" s="43"/>
       <c r="I107" s="43"/>
@@ -22134,7 +22134,7 @@
     </row>
     <row r="111" spans="4:15" x14ac:dyDescent="0.35">
       <c r="D111" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="13"/>
@@ -22187,7 +22187,7 @@
       <c r="E114" s="13"/>
       <c r="F114" s="13"/>
       <c r="G114" s="13" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
@@ -22203,7 +22203,7 @@
       <c r="E115" s="13"/>
       <c r="F115" s="13"/>
       <c r="G115" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
@@ -22232,7 +22232,7 @@
       <c r="D117" s="2"/>
       <c r="E117" s="13"/>
       <c r="F117" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G117" s="13"/>
       <c r="H117" s="13"/>
@@ -22248,7 +22248,7 @@
       <c r="D118" s="2"/>
       <c r="E118" s="13"/>
       <c r="F118" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G118" s="13"/>
       <c r="H118" s="13"/>
@@ -22264,7 +22264,7 @@
       <c r="D119" s="2"/>
       <c r="E119" s="13"/>
       <c r="F119" s="13" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G119" s="13"/>
       <c r="H119" s="13"/>
@@ -22292,7 +22292,7 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" s="104" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -22324,7 +22324,7 @@
     <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D123" s="2"/>
       <c r="E123" s="13" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F123" s="13"/>
       <c r="G123" s="13"/>
@@ -22340,7 +22340,7 @@
     <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D124" s="2"/>
       <c r="E124" s="13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="F124" s="13"/>
       <c r="G124" s="13"/>
@@ -22356,7 +22356,7 @@
     <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D125" s="2"/>
       <c r="E125" s="13" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F125" s="13"/>
       <c r="G125" s="13"/>
@@ -22372,7 +22372,7 @@
     <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D126" s="2"/>
       <c r="E126" s="13" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F126" s="13"/>
       <c r="G126" s="13"/>
@@ -22388,7 +22388,7 @@
     <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="D127" s="2"/>
       <c r="E127" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F127" s="13"/>
       <c r="G127" s="13"/>
@@ -22431,7 +22431,7 @@
     </row>
     <row r="130" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C130" s="105" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="13"/>
@@ -22466,10 +22466,10 @@
     <row r="132" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C132" s="46"/>
       <c r="D132" s="97" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E132" s="44" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F132" s="13"/>
       <c r="G132" s="44"/>
@@ -22486,10 +22486,10 @@
       <c r="C133" s="46"/>
       <c r="D133" s="65"/>
       <c r="E133" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F133" s="44" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G133" s="44"/>
       <c r="H133" s="44"/>
@@ -22553,7 +22553,7 @@
       <c r="C137" s="46"/>
       <c r="D137" s="65"/>
       <c r="E137" s="44" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="F137" s="44"/>
       <c r="G137" s="44"/>
@@ -22567,7 +22567,7 @@
     </row>
     <row r="138" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C138" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D138" s="13"/>
       <c r="E138" s="13"/>
@@ -22601,7 +22601,7 @@
       <c r="C140" s="13"/>
       <c r="D140" s="65"/>
       <c r="E140" s="44" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F140" s="13"/>
       <c r="G140" s="44"/>
@@ -22617,10 +22617,10 @@
       <c r="C141" s="13"/>
       <c r="D141" s="65"/>
       <c r="E141" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F141" s="44" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G141" s="44"/>
       <c r="H141" s="44"/>
@@ -22681,7 +22681,7 @@
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="104" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.35">
@@ -23064,7 +23064,7 @@
     </row>
     <row r="169" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C169" s="41" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -23078,7 +23078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -23128,13 +23128,13 @@
         <v>60</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F2" s="127" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G2" s="127" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="H2" s="32" t="s">
         <v>101</v>
@@ -23169,7 +23169,7 @@
         <v>248</v>
       </c>
       <c r="E3" s="82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="49"/>
@@ -23182,7 +23182,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" s="48" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>257</v>
@@ -23191,10 +23191,10 @@
         <v>258</v>
       </c>
       <c r="D4" s="48" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E4" s="82" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F4" s="49"/>
       <c r="G4" s="49"/>
@@ -23207,7 +23207,7 @@
     </row>
     <row r="5" spans="1:18" s="88" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="86" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B5" s="86" t="s">
         <v>389</v>
@@ -23219,7 +23219,7 @@
         <v>390</v>
       </c>
       <c r="E5" s="86" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87"/>
@@ -23232,19 +23232,19 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" s="82" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C6" s="82" t="s">
         <v>156</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E6" s="82" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F6" s="93"/>
       <c r="G6" s="93"/>
@@ -23257,19 +23257,19 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" s="82" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B7" s="82" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C7" s="82" t="s">
         <v>156</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F7" s="93"/>
       <c r="G7" s="93"/>
@@ -23557,35 +23557,35 @@
     </row>
     <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B2" s="119" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="119" t="s">
         <v>644</v>
-      </c>
-      <c r="C2" s="119" t="s">
-        <v>645</v>
       </c>
       <c r="D2" s="119"/>
       <c r="E2" s="119"/>
       <c r="H2" s="122" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L2" s="122" t="s">
+        <v>665</v>
+      </c>
+      <c r="M2" s="122" t="s">
         <v>666</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="N2" s="122" t="s">
         <v>667</v>
-      </c>
-      <c r="N2" s="122" t="s">
-        <v>668</v>
       </c>
       <c r="O2" s="123"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B3" s="120" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B4" s="121" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -23593,13 +23593,13 @@
         <v>1</v>
       </c>
       <c r="C5" s="41" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H5" s="41">
         <v>1</v>
       </c>
       <c r="M5" s="124" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="N5" s="41">
         <v>0.5</v>
@@ -23610,13 +23610,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H6" s="41">
         <v>1</v>
       </c>
       <c r="M6" s="124" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="N6" s="41">
         <v>0.5</v>
@@ -23627,7 +23627,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H7" s="41">
         <v>0.6</v>
@@ -23644,7 +23644,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H8" s="41">
         <v>0.5</v>
@@ -23655,7 +23655,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H9" s="41">
         <v>1</v>
@@ -23666,7 +23666,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H10" s="41">
         <v>0.5</v>
@@ -23677,7 +23677,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H11" s="41">
         <v>1.5</v>
@@ -23688,7 +23688,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="H12" s="41">
         <v>0.5</v>
@@ -23699,7 +23699,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="H13" s="41">
         <v>2</v>
@@ -23710,7 +23710,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H14" s="41">
         <v>2.5</v>
@@ -23721,7 +23721,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="H15" s="41">
         <v>1</v>
@@ -23729,7 +23729,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="41" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H16" s="41">
         <v>12.1</v>
@@ -23737,7 +23737,7 @@
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="121" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
@@ -23745,7 +23745,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="41" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="H19" s="41">
         <v>4</v>
@@ -23756,7 +23756,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="H20" s="41">
         <v>3</v>
@@ -23767,7 +23767,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="41" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H21" s="41">
         <v>1</v>
@@ -23778,7 +23778,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="41" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="H22" s="41">
         <v>1</v>
@@ -23789,7 +23789,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="41" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H23" s="41">
         <v>3</v>
@@ -23797,7 +23797,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="41" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H24" s="41">
         <v>12</v>
@@ -23805,12 +23805,12 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B26" s="126" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C27" s="41" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="H27" s="41">
         <v>1.5</v>
@@ -23850,17 +23850,17 @@
         <v>42259</v>
       </c>
       <c r="B1" s="102" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="41" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.35">
@@ -23868,80 +23868,80 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="41" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="41" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="41" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="41" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="41" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="103" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
